--- a/Configs/GameConfig/Datas/skill.xlsx
+++ b/Configs/GameConfig/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1878BCF-338C-4F6D-989E-8D82728849AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5F434-DCD9-463A-B8D3-B53DD2938BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -89,18 +89,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -114,6 +102,54 @@
   </si>
   <si>
     <t>范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillKind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能分类（基础数值还是升级属性）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩可莉姆的剑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却cd-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围+60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力+30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -215,15 +251,17 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -236,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -253,7 +291,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -263,6 +300,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -543,7 +586,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,7 +594,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
@@ -572,24 +615,26 @@
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
+      <c r="D1" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="6"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -619,11 +664,11 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -662,8 +707,8 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -674,12 +719,14 @@
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -710,22 +757,24 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="7"/>
       <c r="K4" s="3"/>
@@ -758,11 +807,11 @@
       <c r="B5">
         <v>10001</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -772,6 +821,9 @@
       </c>
       <c r="G5">
         <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -780,20 +832,23 @@
       <c r="B6">
         <v>10002</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -802,20 +857,23 @@
       <c r="B7">
         <v>10003</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -824,20 +882,23 @@
       <c r="B8">
         <v>10004</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>4</v>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>

--- a/Configs/GameConfig/Datas/skill.xlsx
+++ b/Configs/GameConfig/Datas/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5F434-DCD9-463A-B8D3-B53DD2938BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F562C6-7D6D-4F92-865A-E8F0EC7F1DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>攻击力+30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -294,18 +302,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -586,7 +594,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,7 +623,7 @@
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -627,14 +635,16 @@
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="6"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -664,12 +674,12 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="15"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="7"/>
@@ -707,7 +717,7 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -719,14 +729,16 @@
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="6"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -757,10 +769,10 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -772,10 +784,12 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="7"/>
       <c r="K4" s="3"/>
       <c r="L4" s="7"/>
@@ -825,6 +839,9 @@
       <c r="H5" t="s">
         <v>25</v>
       </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
@@ -847,7 +864,10 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="9"/>
@@ -872,7 +892,10 @@
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="9"/>
@@ -897,7 +920,10 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="9"/>

--- a/Configs/GameConfig/Datas/skill.xlsx
+++ b/Configs/GameConfig/Datas/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F562C6-7D6D-4F92-865A-E8F0EC7F1DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03752A0-595D-4827-8F9E-BA87F813FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -105,26 +101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>kind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillKind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能分类（基础数值还是升级属性）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>describe</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -141,23 +117,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>冷却cd-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围+60</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力+30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSkillType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -303,9 +271,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -591,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,18 +567,17 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="34.375" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,31 +585,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="6"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="6"/>
+      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -666,25 +628,24 @@
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
-      <c r="AI1"/>
-    </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -705,9 +666,8 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
-      <c r="AI2"/>
-    </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -715,10 +675,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -726,20 +686,18 @@
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="6"/>
+      <c r="G3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="6"/>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -760,41 +718,38 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
-      <c r="AI3"/>
-    </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>19</v>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="6"/>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -815,150 +770,80 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
-      <c r="AI4"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10001</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
         <v>120</v>
       </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G12" s="5"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="F12" s="5"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G13" s="5"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="F13" s="5"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
